--- a/VLSM SHEET.xlsx
+++ b/VLSM SHEET.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a6d1ac658952b52/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer_\Documents\PKA practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B0DF4F-C99D-4434-A3A0-F95A3B90CFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CABF4AB-4E42-466D-9631-EEB5ADF76980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{302077DA-BF82-4A14-BCD7-856F69C701B7}"/>
   </bookViews>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="173">
   <si>
     <t xml:space="preserve">ip block </t>
   </si>
@@ -495,13 +494,73 @@
   </si>
   <si>
     <t>164.177.4.84</t>
+  </si>
+  <si>
+    <t>L1 150 +2</t>
+  </si>
+  <si>
+    <t>L2 120 + 2</t>
+  </si>
+  <si>
+    <t>L3 50 +2</t>
+  </si>
+  <si>
+    <t>L4 30 + 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5 28 +2 </t>
+  </si>
+  <si>
+    <t>L6 16 +2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7 8 +2 </t>
+  </si>
+  <si>
+    <t>2^8</t>
+  </si>
+  <si>
+    <t>2^7</t>
+  </si>
+  <si>
+    <t>2^6</t>
+  </si>
+  <si>
+    <t>2^5</t>
+  </si>
+  <si>
+    <t>2^4</t>
+  </si>
+  <si>
+    <t>/24</t>
+  </si>
+  <si>
+    <t>/25</t>
+  </si>
+  <si>
+    <t>/26</t>
+  </si>
+  <si>
+    <t>/27</t>
+  </si>
+  <si>
+    <t>/28</t>
+  </si>
+  <si>
+    <t>3th</t>
+  </si>
+  <si>
+    <t>L8  8+ 2</t>
+  </si>
+  <si>
+    <t>35.59.254.0/16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,33 +931,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAB3B5B-9A10-4CAC-A496-CE60B1B559A1}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -939,7 +999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -980,7 +1040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1062,12 +1122,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1075,17 +1135,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1123,7 +1183,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1161,7 +1221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1199,7 +1259,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1237,7 +1297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
         <v>55</v>
       </c>
@@ -1254,17 +1314,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1305,7 +1365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1346,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1387,7 +1447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -1428,7 +1488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -1469,7 +1529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -1510,7 +1570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -1551,7 +1611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -1592,7 +1652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -1633,17 +1693,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1684,7 +1744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -1725,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -1766,7 +1826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -1807,7 +1867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -1848,7 +1908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -1889,7 +1949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -1930,7 +1990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>132</v>
       </c>
@@ -1971,7 +2031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -2012,7 +2072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -2053,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>147</v>
       </c>
@@ -2094,9 +2154,331 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="8:8">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H49" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" t="s">
+        <v>13</v>
+      </c>
+      <c r="M54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/VLSM SHEET.xlsx
+++ b/VLSM SHEET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer_\Documents\PKA practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CABF4AB-4E42-466D-9631-EEB5ADF76980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BFD90A-71F9-4AA7-9B9F-48A9FCE06787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{302077DA-BF82-4A14-BCD7-856F69C701B7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="227">
   <si>
     <t xml:space="preserve">ip block </t>
   </si>
@@ -553,7 +553,169 @@
     <t>L8  8+ 2</t>
   </si>
   <si>
-    <t>35.59.254.0/16</t>
+    <t>35.59.0.0/16</t>
+  </si>
+  <si>
+    <t>35.59.0.0</t>
+  </si>
+  <si>
+    <t>35.59.2.0</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>255.255.255.240</t>
+  </si>
+  <si>
+    <t>35.59.0.1</t>
+  </si>
+  <si>
+    <t>35.59.2.1</t>
+  </si>
+  <si>
+    <t>35.59.1.255</t>
+  </si>
+  <si>
+    <t>35.59.1.254</t>
+  </si>
+  <si>
+    <t>35.59.1.0</t>
+  </si>
+  <si>
+    <t>35.59.1.128</t>
+  </si>
+  <si>
+    <t>35.59.1.192</t>
+  </si>
+  <si>
+    <t>35.59.1.224</t>
+  </si>
+  <si>
+    <t>35.59.2.32</t>
+  </si>
+  <si>
+    <t>35.59.2.48</t>
+  </si>
+  <si>
+    <t>35.59.2.64</t>
+  </si>
+  <si>
+    <t>35.59.2.68</t>
+  </si>
+  <si>
+    <t>35.59.2.72</t>
+  </si>
+  <si>
+    <t>35.59.2.76</t>
+  </si>
+  <si>
+    <t>35.59.2.80</t>
+  </si>
+  <si>
+    <t>35.59.1.1</t>
+  </si>
+  <si>
+    <t>35.59.1.129</t>
+  </si>
+  <si>
+    <t>35.59.1.193</t>
+  </si>
+  <si>
+    <t>35.59.1.225</t>
+  </si>
+  <si>
+    <t>35.59.2.33</t>
+  </si>
+  <si>
+    <t>35.59.2.49</t>
+  </si>
+  <si>
+    <t>35.59.2.65</t>
+  </si>
+  <si>
+    <t>35.59.2.69</t>
+  </si>
+  <si>
+    <t>35.59.2.73</t>
+  </si>
+  <si>
+    <t>35.59.2.77</t>
+  </si>
+  <si>
+    <t>35.59.2.79</t>
+  </si>
+  <si>
+    <t>35.59.2.75</t>
+  </si>
+  <si>
+    <t>35.59.2.71</t>
+  </si>
+  <si>
+    <t>35.59.2.67</t>
+  </si>
+  <si>
+    <t>35.59.2.63</t>
+  </si>
+  <si>
+    <t>35.59.2.47</t>
+  </si>
+  <si>
+    <t>35.59.2.31</t>
+  </si>
+  <si>
+    <t>35.59.1.223</t>
+  </si>
+  <si>
+    <t>35.59.1.191</t>
+  </si>
+  <si>
+    <t>35.59.1.127</t>
+  </si>
+  <si>
+    <t>35.59.0.255</t>
+  </si>
+  <si>
+    <t>35.59.2.78</t>
+  </si>
+  <si>
+    <t>35.59.2.74</t>
+  </si>
+  <si>
+    <t>35.59.2.70</t>
+  </si>
+  <si>
+    <t>35.59.2.66</t>
+  </si>
+  <si>
+    <t>35.59.2.62</t>
+  </si>
+  <si>
+    <t>35.59.2.46</t>
+  </si>
+  <si>
+    <t>35.59.2.30</t>
+  </si>
+  <si>
+    <t>35.59.1.222</t>
+  </si>
+  <si>
+    <t>35.59.1.190</t>
+  </si>
+  <si>
+    <t>35.59.1.126</t>
+  </si>
+  <si>
+    <t>35.59.0.254</t>
   </si>
 </sst>
 </file>
@@ -931,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAB3B5B-9A10-4CAC-A496-CE60B1B559A1}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2225,6 +2387,24 @@
         <v>0</v>
       </c>
       <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>173</v>
+      </c>
+      <c r="I55" t="s">
+        <v>175</v>
+      </c>
+      <c r="J55" t="s">
+        <v>180</v>
+      </c>
+      <c r="K55" t="s">
+        <v>226</v>
+      </c>
+      <c r="L55" t="s">
+        <v>215</v>
+      </c>
+      <c r="M55">
         <v>256</v>
       </c>
     </row>
@@ -2250,6 +2430,24 @@
       <c r="G56">
         <v>128</v>
       </c>
+      <c r="H56" t="s">
+        <v>184</v>
+      </c>
+      <c r="I56" t="s">
+        <v>176</v>
+      </c>
+      <c r="J56" t="s">
+        <v>195</v>
+      </c>
+      <c r="K56" t="s">
+        <v>225</v>
+      </c>
+      <c r="L56" t="s">
+        <v>214</v>
+      </c>
+      <c r="M56">
+        <v>128</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -2273,6 +2471,24 @@
       <c r="G57">
         <v>64</v>
       </c>
+      <c r="H57" t="s">
+        <v>185</v>
+      </c>
+      <c r="I57" t="s">
+        <v>177</v>
+      </c>
+      <c r="J57" t="s">
+        <v>196</v>
+      </c>
+      <c r="K57" t="s">
+        <v>224</v>
+      </c>
+      <c r="L57" t="s">
+        <v>213</v>
+      </c>
+      <c r="M57">
+        <v>64</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -2296,6 +2512,24 @@
       <c r="G58">
         <v>32</v>
       </c>
+      <c r="H58" t="s">
+        <v>186</v>
+      </c>
+      <c r="I58" t="s">
+        <v>178</v>
+      </c>
+      <c r="J58" t="s">
+        <v>197</v>
+      </c>
+      <c r="K58" t="s">
+        <v>223</v>
+      </c>
+      <c r="L58" t="s">
+        <v>212</v>
+      </c>
+      <c r="M58">
+        <v>32</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -2319,6 +2553,24 @@
       <c r="G59">
         <v>32</v>
       </c>
+      <c r="H59" t="s">
+        <v>187</v>
+      </c>
+      <c r="I59" t="s">
+        <v>178</v>
+      </c>
+      <c r="J59" t="s">
+        <v>198</v>
+      </c>
+      <c r="K59" t="s">
+        <v>183</v>
+      </c>
+      <c r="L59" t="s">
+        <v>182</v>
+      </c>
+      <c r="M59">
+        <v>32</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -2342,6 +2594,24 @@
       <c r="G60">
         <v>32</v>
       </c>
+      <c r="H60" t="s">
+        <v>174</v>
+      </c>
+      <c r="I60" t="s">
+        <v>178</v>
+      </c>
+      <c r="J60" t="s">
+        <v>181</v>
+      </c>
+      <c r="K60" t="s">
+        <v>222</v>
+      </c>
+      <c r="L60" t="s">
+        <v>211</v>
+      </c>
+      <c r="M60">
+        <v>32</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -2365,6 +2635,24 @@
       <c r="G61">
         <v>16</v>
       </c>
+      <c r="H61" t="s">
+        <v>188</v>
+      </c>
+      <c r="I61" t="s">
+        <v>179</v>
+      </c>
+      <c r="J61" t="s">
+        <v>199</v>
+      </c>
+      <c r="K61" t="s">
+        <v>221</v>
+      </c>
+      <c r="L61" t="s">
+        <v>210</v>
+      </c>
+      <c r="M61">
+        <v>16</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -2388,6 +2676,24 @@
       <c r="G62">
         <v>16</v>
       </c>
+      <c r="H62" t="s">
+        <v>189</v>
+      </c>
+      <c r="I62" t="s">
+        <v>179</v>
+      </c>
+      <c r="J62" t="s">
+        <v>200</v>
+      </c>
+      <c r="K62" t="s">
+        <v>220</v>
+      </c>
+      <c r="L62" t="s">
+        <v>209</v>
+      </c>
+      <c r="M62">
+        <v>16</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -2411,6 +2717,24 @@
       <c r="G63">
         <v>4</v>
       </c>
+      <c r="H63" t="s">
+        <v>190</v>
+      </c>
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s">
+        <v>201</v>
+      </c>
+      <c r="K63" t="s">
+        <v>219</v>
+      </c>
+      <c r="L63" t="s">
+        <v>208</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -2434,8 +2758,26 @@
       <c r="G64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>191</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K64" t="s">
+        <v>218</v>
+      </c>
+      <c r="L64" t="s">
+        <v>207</v>
+      </c>
+      <c r="M64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2457,8 +2799,26 @@
       <c r="G65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s">
+        <v>203</v>
+      </c>
+      <c r="K65" t="s">
+        <v>217</v>
+      </c>
+      <c r="L65" t="s">
+        <v>206</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -2479,6 +2839,29 @@
       </c>
       <c r="G66">
         <v>4</v>
+      </c>
+      <c r="H66" t="s">
+        <v>193</v>
+      </c>
+      <c r="I66" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s">
+        <v>204</v>
+      </c>
+      <c r="K66" t="s">
+        <v>216</v>
+      </c>
+      <c r="L66" t="s">
+        <v>205</v>
+      </c>
+      <c r="M66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/VLSM SHEET.xlsx
+++ b/VLSM SHEET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer_\Documents\PKA practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BFD90A-71F9-4AA7-9B9F-48A9FCE06787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C256E5-6C3F-49E8-BA89-15FCDEC5F0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{302077DA-BF82-4A14-BCD7-856F69C701B7}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="254">
   <si>
     <t xml:space="preserve">ip block </t>
   </si>
@@ -716,6 +715,87 @@
   </si>
   <si>
     <t>35.59.0.254</t>
+  </si>
+  <si>
+    <t>192.168.3.0</t>
+  </si>
+  <si>
+    <t>192.168.3.0/24</t>
+  </si>
+  <si>
+    <t>28+2</t>
+  </si>
+  <si>
+    <t>7+2</t>
+  </si>
+  <si>
+    <t>2+2</t>
+  </si>
+  <si>
+    <t>192.168.3.32</t>
+  </si>
+  <si>
+    <t>192.168.3.64</t>
+  </si>
+  <si>
+    <t>192.168.3.80</t>
+  </si>
+  <si>
+    <t>192.168.3.96</t>
+  </si>
+  <si>
+    <t>192.168.3.100</t>
+  </si>
+  <si>
+    <t>192.168.3.1</t>
+  </si>
+  <si>
+    <t>192.168.3.33</t>
+  </si>
+  <si>
+    <t>192.168.3.65</t>
+  </si>
+  <si>
+    <t>192.168.3.81</t>
+  </si>
+  <si>
+    <t>192.168.3.97</t>
+  </si>
+  <si>
+    <t>192.168.3.99</t>
+  </si>
+  <si>
+    <t>192.168.3.95</t>
+  </si>
+  <si>
+    <t>192.168.3.79</t>
+  </si>
+  <si>
+    <t>192.168.3.63</t>
+  </si>
+  <si>
+    <t>192.168.3.31</t>
+  </si>
+  <si>
+    <t>192.168.3.30</t>
+  </si>
+  <si>
+    <t>192.168.3.62</t>
+  </si>
+  <si>
+    <t>192.168.3.78</t>
+  </si>
+  <si>
+    <t>192.168.3.94</t>
+  </si>
+  <si>
+    <t>192.168.3.98</t>
+  </si>
+  <si>
+    <t>Server LAN 14+2</t>
+  </si>
+  <si>
+    <t>S1-Central 28+2</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAB3B5B-9A10-4CAC-A496-CE60B1B559A1}">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:M66"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2864,6 +2944,262 @@
         <v>194</v>
       </c>
     </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" t="s">
+        <v>13</v>
+      </c>
+      <c r="M72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>253</v>
+      </c>
+      <c r="B73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>32</v>
+      </c>
+      <c r="H73" t="s">
+        <v>227</v>
+      </c>
+      <c r="I73" t="s">
+        <v>178</v>
+      </c>
+      <c r="J73" t="s">
+        <v>237</v>
+      </c>
+      <c r="K73" t="s">
+        <v>247</v>
+      </c>
+      <c r="L73" t="s">
+        <v>246</v>
+      </c>
+      <c r="M73">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>32</v>
+      </c>
+      <c r="H74" t="s">
+        <v>232</v>
+      </c>
+      <c r="I74" t="s">
+        <v>178</v>
+      </c>
+      <c r="J74" t="s">
+        <v>238</v>
+      </c>
+      <c r="K74" t="s">
+        <v>248</v>
+      </c>
+      <c r="L74" t="s">
+        <v>245</v>
+      </c>
+      <c r="M74">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>252</v>
+      </c>
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s">
+        <v>233</v>
+      </c>
+      <c r="I75" t="s">
+        <v>179</v>
+      </c>
+      <c r="J75" t="s">
+        <v>239</v>
+      </c>
+      <c r="K75" t="s">
+        <v>249</v>
+      </c>
+      <c r="L75" t="s">
+        <v>244</v>
+      </c>
+      <c r="M75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s">
+        <v>234</v>
+      </c>
+      <c r="I76" t="s">
+        <v>179</v>
+      </c>
+      <c r="J76" t="s">
+        <v>240</v>
+      </c>
+      <c r="K76" t="s">
+        <v>250</v>
+      </c>
+      <c r="L76" t="s">
+        <v>243</v>
+      </c>
+      <c r="M76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77" t="s">
+        <v>235</v>
+      </c>
+      <c r="I77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s">
+        <v>241</v>
+      </c>
+      <c r="K77" t="s">
+        <v>251</v>
+      </c>
+      <c r="L77" t="s">
+        <v>242</v>
+      </c>
+      <c r="M77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
